--- a/Psets.xlsx
+++ b/Psets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ngio365-my.sharepoint.com/personal/jessica_ka_yi_chiu_ngi_no/Documents/Documents/PhD/Paper_ParametricDesignRockAnchorsBIM/GeometryGym/generic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2023\01\20230101\Delivery-Result\Codes\generic_anchors_ifc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{5EAF4338-38B2-453C-98F7-93FD9A8B9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC3104AD-5E3F-4155-9CE0-DB770C437161}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0A300A-BF6D-4DE3-A2B5-7D58D508F416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3615" windowWidth="20805" windowHeight="15345" firstSheet="1" activeTab="7" xr2:uid="{D691B579-FABF-49B2-8F44-7CE73D92966A}"/>
+    <workbookView xWindow="3045" yWindow="1890" windowWidth="20040" windowHeight="15345" firstSheet="1" activeTab="7" xr2:uid="{D691B579-FABF-49B2-8F44-7CE73D92966A}"/>
   </bookViews>
   <sheets>
     <sheet name="A_MODELLINFO" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="112">
   <si>
     <t>parameter</t>
   </si>
@@ -150,12 +150,6 @@
     <t>LOI500</t>
   </si>
   <si>
-    <t>Number of bolts</t>
-  </si>
-  <si>
-    <t>Estimated number of bolts in case no individual bolts are modelled</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -165,45 +159,27 @@
     <t>Spacing</t>
   </si>
   <si>
-    <t>Spacing of bolts in case no individual bolts are modelled</t>
-  </si>
-  <si>
     <t>[m]</t>
   </si>
   <si>
     <t>Length</t>
   </si>
   <si>
-    <t>Estimated bolt length in case no individual bolts are modelled, or specific lengths otherwise</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Required type of bolt</t>
-  </si>
-  <si>
     <t>Diameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Nominal bolt diameter </t>
-  </si>
-  <si>
     <t>[mm]</t>
   </si>
   <si>
     <t>Yield load</t>
   </si>
   <si>
-    <t>Required yield load of bolt</t>
-  </si>
-  <si>
     <t>[kN]</t>
   </si>
   <si>
-    <t>X </t>
-  </si>
-  <si>
     <t>Head plate type</t>
   </si>
   <si>
@@ -213,63 +189,27 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Whether the anchor is active (True) or passive (False)</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Unique identifier of single bolts</t>
-  </si>
-  <si>
     <t>Azimuth</t>
   </si>
   <si>
-    <t>Direction of individual bolt</t>
-  </si>
-  <si>
     <t>[°]</t>
   </si>
   <si>
     <t>Inclination</t>
   </si>
   <si>
-    <t>Inclination from horizontal of individual bolt  </t>
-  </si>
-  <si>
-    <t>Bolt head X-coordinate</t>
-  </si>
-  <si>
-    <t>X-Coordinate of the bolt head</t>
-  </si>
-  <si>
-    <t>Bolt head Y-coordinate</t>
-  </si>
-  <si>
-    <t>Y-Coordinate of the bolt head</t>
-  </si>
-  <si>
-    <t>Bolt head Z-coordinate</t>
-  </si>
-  <si>
-    <t>Z-Coordinate of the bolt head</t>
-  </si>
-  <si>
     <t>Bond type</t>
   </si>
   <si>
-    <t>Material to be used to create an interface to the rock (e.g. cement, resin)  </t>
-  </si>
-  <si>
     <t>Bond length</t>
   </si>
   <si>
-    <t>Length of the bolt that should be in contact with the rock  </t>
-  </si>
-  <si>
     <t>Bond strength</t>
   </si>
   <si>
@@ -282,27 +222,12 @@
     <t>Anchoring length</t>
   </si>
   <si>
-    <t>Length of the bolt behind the zone subjected to displacement</t>
-  </si>
-  <si>
     <t>Inflation pressure</t>
   </si>
   <si>
-    <t>Required pressure to inflate an expansion bolt (e.g. Swellex)</t>
-  </si>
-  <si>
     <t>[bar]</t>
   </si>
   <si>
-    <t>Pretensioning force</t>
-  </si>
-  <si>
-    <t>Force that is to be applied in case of prestressed anchors</t>
-  </si>
-  <si>
-    <t>[kN]  </t>
-  </si>
-  <si>
     <t>Failure test recommended</t>
   </si>
   <si>
@@ -327,21 +252,12 @@
     <t>Whether the proof load test is recommended</t>
   </si>
   <si>
-    <t>Whether the capacity of the installed anchor is tested against the proof load (Passed/Failed/Not tested)</t>
-  </si>
-  <si>
     <t>Proof load test force</t>
   </si>
   <si>
     <t>Force that is applied in case it is proof load tested</t>
   </si>
   <si>
-    <t>Bolt condition</t>
-  </si>
-  <si>
-    <t>Bolt condition assessed during inspection after installation</t>
-  </si>
-  <si>
     <t>relevant</t>
   </si>
   <si>
@@ -354,10 +270,115 @@
     <t>Circular</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>Proof load test</t>
+  </si>
+  <si>
+    <t>Required type of element</t>
+  </si>
+  <si>
+    <t>Unique identifier of single elements</t>
+  </si>
+  <si>
+    <t>Whether the element is pre-stressed/active (True) or non-stressed/passive (False)</t>
+  </si>
+  <si>
+    <t>Number of elements</t>
+  </si>
+  <si>
+    <t>Estimated number of elements in case no individual elements are modelled</t>
+  </si>
+  <si>
+    <t>Spacing of elements in case no individual elements are modelled</t>
+  </si>
+  <si>
+    <t>Estimated element length in case no individual elements are modelled, or specific lengths otherwise</t>
+  </si>
+  <si>
+    <t>Inclination from horizontal of individual element</t>
+  </si>
+  <si>
+    <t>Direction of individual element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal element diameter </t>
+  </si>
+  <si>
+    <t>Required yield load of element</t>
+  </si>
+  <si>
+    <t>Length of the element behind the zone subjected to displacement</t>
+  </si>
+  <si>
+    <t>Required pressure to inflate an expansion element (e.g. Swellex)</t>
+  </si>
+  <si>
+    <t>Material to be used to create an interface to the ground (e.g. cement, resin)</t>
+  </si>
+  <si>
+    <t>Length of the element that should be in contact with the ground</t>
+  </si>
+  <si>
+    <t>Pre-stressing force</t>
+  </si>
+  <si>
+    <t>Force that is to be applied in case of pre-stressed anchors</t>
+  </si>
+  <si>
+    <t>Element head X-coordinate</t>
+  </si>
+  <si>
+    <t>X-Coordinate of the element head</t>
+  </si>
+  <si>
+    <t>Element head Y-coordinate</t>
+  </si>
+  <si>
+    <t>Y-Coordinate of the element head</t>
+  </si>
+  <si>
+    <t>Element head Z-coordinate</t>
+  </si>
+  <si>
+    <t>Z-Coordinate of the element head</t>
+  </si>
+  <si>
+    <t>Measurement-while-drilling</t>
+  </si>
+  <si>
+    <t>Whether MWD data is available</t>
+  </si>
+  <si>
+    <t>Whether the capacity of the installed anchor is tested against the proof load and result (Passed/Failed/Not tested)</t>
+  </si>
+  <si>
+    <t>Current load</t>
+  </si>
+  <si>
+    <t>Current load determined by site testing/monitoring</t>
+  </si>
+  <si>
+    <t>Creep rate</t>
+  </si>
+  <si>
+    <t>Limit of the creep rate while testing</t>
+  </si>
+  <si>
+    <t>Slip</t>
+  </si>
+  <si>
+    <t>Slip while proof loading</t>
+  </si>
+  <si>
+    <t>Corrosion protection</t>
+  </si>
+  <si>
+    <t>Type of corrosion protection of the tensile element</t>
+  </si>
+  <si>
+    <t>Corrosion protection head</t>
+  </si>
+  <si>
+    <t>Type of corrosion protection of the head area</t>
   </si>
   <si>
     <t>Passed</t>
@@ -384,7 +405,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -463,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,6 +499,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -486,9 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -548,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -654,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -796,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9259D7-FEB3-418C-8720-A7065C1FE4BE}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,722 +1013,836 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="B6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="B10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="168.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="D30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="s">
-        <v>37</v>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1709,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E94DC5-7168-409E-B020-99A7B337BB68}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,425 +1867,500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>98</v>
+      <c r="D1" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="6" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Number of bolts</v>
-      </c>
-      <c r="B2" s="9" t="str">
+        <v>Type</v>
+      </c>
+      <c r="B2" s="6" t="str">
         <f>'LOD-all'!D2</f>
+        <v>Text</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>'LOD-all'!E2</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
+        <f>'LOD-all'!A3</f>
+        <v>ID</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>'LOD-all'!D3</f>
+        <v>Text</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <f>'LOD-all'!E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>'LOD-all'!A4</f>
+        <v>Active</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>'LOD-all'!D4</f>
+        <v>Boolean</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>'LOD-all'!E4</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
+        <f>'LOD-all'!A5</f>
+        <v>Number of elements</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>'LOD-all'!D5</f>
         <v>Integer</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
-        <f>'LOD-all'!E2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="str">
-        <f>'LOD-all'!A3</f>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <f>'LOD-all'!E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
+        <f>'LOD-all'!A6</f>
         <v>Spacing</v>
       </c>
-      <c r="B3" s="9" t="str">
-        <f>'LOD-all'!D3</f>
-        <v>Real</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
-        <f>'LOD-all'!E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="str">
-        <f>'LOD-all'!A4</f>
+      <c r="B6" s="6" t="str">
+        <f>'LOD-all'!D6</f>
+        <v>Real</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <f>'LOD-all'!E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>'LOD-all'!A7</f>
         <v>Length</v>
       </c>
-      <c r="B4" s="9" t="str">
-        <f>'LOD-all'!D4</f>
-        <v>Real</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
-        <f>'LOD-all'!E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="str">
-        <f>'LOD-all'!A5</f>
-        <v>Type</v>
-      </c>
-      <c r="B5" s="9" t="str">
-        <f>'LOD-all'!D5</f>
+      <c r="B7" s="6" t="str">
+        <f>'LOD-all'!D7</f>
+        <v>Real</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <f>'LOD-all'!E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f>'LOD-all'!A8</f>
+        <v>Inclination</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>'LOD-all'!D8</f>
+        <v>Real</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <f>'LOD-all'!E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
+        <f>'LOD-all'!A9</f>
+        <v>Azimuth</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>'LOD-all'!D9</f>
+        <v>Real</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <f>'LOD-all'!E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="str">
+        <f>'LOD-all'!A10</f>
+        <v>Diameter</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>'LOD-all'!D10</f>
+        <v>Real</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <f>'LOD-all'!E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>'LOD-all'!A11</f>
+        <v>Yield load</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>'LOD-all'!D11</f>
+        <v>Real</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <f>'LOD-all'!E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>'LOD-all'!A12</f>
+        <v>Head plate type</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f>'LOD-all'!D12</f>
         <v>Text</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="9" t="str">
-        <f>'LOD-all'!E5</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="str">
-        <f>'LOD-all'!A6</f>
-        <v>Diameter</v>
-      </c>
-      <c r="B6" s="9" t="str">
-        <f>'LOD-all'!D6</f>
-        <v>Real</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
-        <f>'LOD-all'!E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="str">
-        <f>'LOD-all'!A7</f>
-        <v>Yield load</v>
-      </c>
-      <c r="B7" s="9" t="str">
-        <f>'LOD-all'!D7</f>
-        <v>Real</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
-        <f>'LOD-all'!E7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="str">
-        <f>'LOD-all'!A8</f>
-        <v>Head plate type</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f>'LOD-all'!D8</f>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <f>'LOD-all'!E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>'LOD-all'!A13</f>
+        <v>Anchoring length</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>'LOD-all'!D13</f>
+        <v>Real</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <f>'LOD-all'!E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>'LOD-all'!A14</f>
+        <v>Inflation pressure</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>'LOD-all'!D14</f>
+        <v>Real</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <f>'LOD-all'!E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>'LOD-all'!A15</f>
+        <v>Bond type</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>'LOD-all'!D15</f>
         <v>Text</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
-        <f>'LOD-all'!E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="str">
-        <f>'LOD-all'!A9</f>
-        <v>Active</v>
-      </c>
-      <c r="B9" s="9" t="str">
-        <f>'LOD-all'!D9</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f>'LOD-all'!E9</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="str">
-        <f>'LOD-all'!A10</f>
-        <v>ID</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f>'LOD-all'!D10</f>
-        <v>Text</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
-        <f>'LOD-all'!E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="str">
-        <f>'LOD-all'!A11</f>
-        <v>Azimuth</v>
-      </c>
-      <c r="B11" s="9" t="str">
-        <f>'LOD-all'!D11</f>
-        <v>Real</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
-        <f>'LOD-all'!E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="str">
-        <f>'LOD-all'!A12</f>
-        <v>Inclination</v>
-      </c>
-      <c r="B12" s="9" t="str">
-        <f>'LOD-all'!D12</f>
-        <v>Real</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
-        <f>'LOD-all'!E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="str">
-        <f>'LOD-all'!A13</f>
-        <v>Bolt head X-coordinate</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <f>'LOD-all'!D13</f>
-        <v>Real</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
-        <f>'LOD-all'!E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
-        <f>'LOD-all'!A14</f>
-        <v>Bolt head Y-coordinate</v>
-      </c>
-      <c r="B14" s="9" t="str">
-        <f>'LOD-all'!D14</f>
-        <v>Real</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <f>'LOD-all'!E14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
-        <f>'LOD-all'!A15</f>
-        <v>Bolt head Z-coordinate</v>
-      </c>
-      <c r="B15" s="9" t="str">
-        <f>'LOD-all'!D15</f>
-        <v>Real</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
         <f>'LOD-all'!E15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="6" t="str">
         <f>'LOD-all'!A16</f>
-        <v>Bond type</v>
-      </c>
-      <c r="B16" s="9" t="str">
+        <v>Bond length</v>
+      </c>
+      <c r="B16" s="6" t="str">
         <f>'LOD-all'!D16</f>
-        <v>Text</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+        <v>Real</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <f>'LOD-all'!E16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="6" t="str">
         <f>'LOD-all'!A17</f>
-        <v>Bond length</v>
-      </c>
-      <c r="B17" s="9" t="str">
+        <v>Bond strength</v>
+      </c>
+      <c r="B17" s="6" t="str">
         <f>'LOD-all'!D17</f>
         <v>Real</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
         <f>'LOD-all'!E17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="6" t="str">
         <f>'LOD-all'!A18</f>
-        <v>Bond strength</v>
-      </c>
-      <c r="B18" s="9" t="str">
+        <v>Pre-stressing force</v>
+      </c>
+      <c r="B18" s="6" t="str">
         <f>'LOD-all'!D18</f>
         <v>Real</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
         <f>'LOD-all'!E18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="6" t="str">
         <f>'LOD-all'!A19</f>
-        <v>Anchoring length</v>
-      </c>
-      <c r="B19" s="9" t="str">
+        <v>Element head X-coordinate</v>
+      </c>
+      <c r="B19" s="6" t="str">
         <f>'LOD-all'!D19</f>
         <v>Real</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
         <f>'LOD-all'!E19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="str">
+      <c r="A20" s="6" t="str">
         <f>'LOD-all'!A20</f>
-        <v>Inflation pressure</v>
-      </c>
-      <c r="B20" s="9" t="str">
+        <v>Element head Y-coordinate</v>
+      </c>
+      <c r="B20" s="6" t="str">
         <f>'LOD-all'!D20</f>
         <v>Real</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
         <f>'LOD-all'!E20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="str">
+      <c r="A21" s="6" t="str">
         <f>'LOD-all'!A21</f>
-        <v>Pretensioning force</v>
-      </c>
-      <c r="B21" s="9" t="str">
+        <v>Element head Z-coordinate</v>
+      </c>
+      <c r="B21" s="6" t="str">
         <f>'LOD-all'!D21</f>
         <v>Real</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <f>'LOD-all'!E21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="str">
+      <c r="A22" s="6" t="str">
         <f>'LOD-all'!A22</f>
-        <v>Failure test recommended</v>
-      </c>
-      <c r="B22" s="9" t="str">
+        <v>Measurement-while-drilling</v>
+      </c>
+      <c r="B22" s="6" t="str">
         <f>'LOD-all'!D22</f>
         <v>Boolean</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <f>'LOD-all'!E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="str">
+      <c r="A23" s="6" t="str">
         <f>'LOD-all'!A23</f>
-        <v>Failure test</v>
-      </c>
-      <c r="B23" s="9" t="str">
+        <v>Failure test recommended</v>
+      </c>
+      <c r="B23" s="6" t="str">
         <f>'LOD-all'!D23</f>
         <v>Boolean</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
         <f>'LOD-all'!E23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="str">
+      <c r="A24" s="6" t="str">
         <f>'LOD-all'!A24</f>
+        <v>Failure test</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>'LOD-all'!D24</f>
+        <v>Boolean</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <f>'LOD-all'!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>'LOD-all'!A25</f>
         <v>Failure test force</v>
       </c>
-      <c r="B24" s="9" t="str">
-        <f>'LOD-all'!D24</f>
-        <v>Real</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9">
-        <f>'LOD-all'!E24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="str">
-        <f>'LOD-all'!A25</f>
+      <c r="B25" s="6" t="str">
+        <f>'LOD-all'!D25</f>
+        <v>Real</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <f>'LOD-all'!E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="str">
+        <f>'LOD-all'!A26</f>
         <v>Proof load test recommended</v>
       </c>
-      <c r="B25" s="9" t="str">
-        <f>'LOD-all'!D25</f>
+      <c r="B26" s="6" t="str">
+        <f>'LOD-all'!D26</f>
         <v>Boolean</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
-        <f>'LOD-all'!E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="str">
-        <f>'LOD-all'!A26</f>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <f>'LOD-all'!E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="str">
+        <f>'LOD-all'!A27</f>
         <v>Proof load test</v>
       </c>
-      <c r="B26" s="9" t="str">
-        <f>'LOD-all'!D26</f>
+      <c r="B27" s="6" t="str">
+        <f>'LOD-all'!D27</f>
         <v>Text</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9">
-        <f>'LOD-all'!E26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="str">
-        <f>'LOD-all'!A27</f>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <f>'LOD-all'!E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="str">
+        <f>'LOD-all'!A28</f>
         <v>Proof load test force</v>
       </c>
-      <c r="B27" s="9" t="str">
-        <f>'LOD-all'!D27</f>
-        <v>Real</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
-        <f>'LOD-all'!E27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="str">
-        <f>'LOD-all'!A28</f>
-        <v>Bolt condition</v>
-      </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="6" t="str">
         <f>'LOD-all'!D28</f>
+        <v>Real</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <f>'LOD-all'!E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="str">
+        <f>'LOD-all'!A29</f>
+        <v>Current load</v>
+      </c>
+      <c r="B29" s="6" t="str">
+        <f>'LOD-all'!D29</f>
+        <v>Real</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <f>'LOD-all'!E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="str">
+        <f>'LOD-all'!A30</f>
+        <v>Creep rate</v>
+      </c>
+      <c r="B30" s="6" t="str">
+        <f>'LOD-all'!D30</f>
+        <v>Real</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <f>'LOD-all'!E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="str">
+        <f>'LOD-all'!A31</f>
+        <v>Slip</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f>'LOD-all'!D31</f>
+        <v>Real</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <f>'LOD-all'!E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="str">
+        <f>'LOD-all'!A32</f>
+        <v>Corrosion protection</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f>'LOD-all'!D32</f>
         <v>Text</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
-        <f>'LOD-all'!E28</f>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <f>'LOD-all'!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="str">
+        <f>'LOD-all'!A33</f>
+        <v>Corrosion protection head</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f>'LOD-all'!D33</f>
+        <v>Text</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <f>'LOD-all'!E33</f>
         <v>0</v>
       </c>
     </row>
@@ -2152,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7F9A95-5298-4A00-9DC2-6052ADA5439B}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,441 +2385,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>98</v>
+      <c r="D1" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="6" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Number of bolts</v>
-      </c>
-      <c r="B2" s="9" t="str">
+        <v>Type</v>
+      </c>
+      <c r="B2" s="6" t="str">
         <f>'LOD-all'!D2</f>
+        <v>Text</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>'LOD-all'!F2</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
+        <f>'LOD-all'!A3</f>
+        <v>ID</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>'LOD-all'!D3</f>
+        <v>Text</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <f>'LOD-all'!F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>'LOD-all'!A4</f>
+        <v>Active</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>'LOD-all'!D4</f>
+        <v>Boolean</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>'LOD-all'!F4</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
+        <f>'LOD-all'!A5</f>
+        <v>Number of elements</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>'LOD-all'!D5</f>
         <v>Integer</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C5" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="str">
-        <f>'LOD-all'!F2</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="str">
-        <f>'LOD-all'!A3</f>
+      <c r="D5" s="6" t="str">
+        <f>'LOD-all'!F5</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
+        <f>'LOD-all'!A6</f>
         <v>Spacing</v>
       </c>
-      <c r="B3" s="9" t="str">
-        <f>'LOD-all'!D3</f>
-        <v>Real</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B6" s="6" t="str">
+        <f>'LOD-all'!D6</f>
+        <v>Real</v>
+      </c>
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="str">
-        <f>'LOD-all'!F3</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="str">
-        <f>'LOD-all'!A4</f>
+      <c r="D6" s="6" t="str">
+        <f>'LOD-all'!F6</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>'LOD-all'!A7</f>
         <v>Length</v>
       </c>
-      <c r="B4" s="9" t="str">
-        <f>'LOD-all'!D4</f>
-        <v>Real</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B7" s="6" t="str">
+        <f>'LOD-all'!D7</f>
+        <v>Real</v>
+      </c>
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="str">
-        <f>'LOD-all'!F4</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="str">
-        <f>'LOD-all'!A5</f>
-        <v>Type</v>
-      </c>
-      <c r="B5" s="9" t="str">
-        <f>'LOD-all'!D5</f>
+      <c r="D7" s="6" t="str">
+        <f>'LOD-all'!F7</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f>'LOD-all'!A8</f>
+        <v>Inclination</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>'LOD-all'!D8</f>
+        <v>Real</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <f>'LOD-all'!F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
+        <f>'LOD-all'!A9</f>
+        <v>Azimuth</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>'LOD-all'!D9</f>
+        <v>Real</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <f>'LOD-all'!F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="str">
+        <f>'LOD-all'!A10</f>
+        <v>Diameter</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>'LOD-all'!D10</f>
+        <v>Real</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>'LOD-all'!F10</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>'LOD-all'!A11</f>
+        <v>Yield load</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>'LOD-all'!D11</f>
+        <v>Real</v>
+      </c>
+      <c r="C11" s="6">
+        <v>402</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f>'LOD-all'!F11</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>'LOD-all'!A12</f>
+        <v>Head plate type</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f>'LOD-all'!D12</f>
         <v>Text</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="9" t="str">
-        <f>'LOD-all'!F5</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="str">
-        <f>'LOD-all'!A6</f>
-        <v>Diameter</v>
-      </c>
-      <c r="B6" s="9" t="str">
-        <f>'LOD-all'!D6</f>
-        <v>Real</v>
-      </c>
-      <c r="C6" s="9">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f>'LOD-all'!F6</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="str">
-        <f>'LOD-all'!A7</f>
-        <v>Yield load</v>
-      </c>
-      <c r="B7" s="9" t="str">
-        <f>'LOD-all'!D7</f>
-        <v>Real</v>
-      </c>
-      <c r="C7" s="9">
-        <v>402</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f>'LOD-all'!F7</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="str">
-        <f>'LOD-all'!A8</f>
-        <v>Head plate type</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f>'LOD-all'!D8</f>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <f>'LOD-all'!F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>'LOD-all'!A13</f>
+        <v>Anchoring length</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>'LOD-all'!D13</f>
+        <v>Real</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <f>'LOD-all'!F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>'LOD-all'!A14</f>
+        <v>Inflation pressure</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>'LOD-all'!D14</f>
+        <v>Real</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <f>'LOD-all'!F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>'LOD-all'!A15</f>
+        <v>Bond type</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>'LOD-all'!D15</f>
         <v>Text</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
-        <f>'LOD-all'!F8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="str">
-        <f>'LOD-all'!A9</f>
-        <v>Active</v>
-      </c>
-      <c r="B9" s="9" t="str">
-        <f>'LOD-all'!D9</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C9" s="9" t="b">
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f>'LOD-all'!F15</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>'LOD-all'!A16</f>
+        <v>Bond length</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>'LOD-all'!D16</f>
+        <v>Real</v>
+      </c>
+      <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="str">
-        <f>'LOD-all'!F9</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="str">
-        <f>'LOD-all'!A10</f>
-        <v>ID</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f>'LOD-all'!D10</f>
-        <v>Text</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
-        <f>'LOD-all'!F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="str">
-        <f>'LOD-all'!A11</f>
-        <v>Azimuth</v>
-      </c>
-      <c r="B11" s="9" t="str">
-        <f>'LOD-all'!D11</f>
-        <v>Real</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
-        <f>'LOD-all'!F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="str">
-        <f>'LOD-all'!A12</f>
-        <v>Inclination</v>
-      </c>
-      <c r="B12" s="9" t="str">
-        <f>'LOD-all'!D12</f>
-        <v>Real</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
-        <f>'LOD-all'!F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="str">
-        <f>'LOD-all'!A13</f>
-        <v>Bolt head X-coordinate</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <f>'LOD-all'!D13</f>
-        <v>Real</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
-        <f>'LOD-all'!F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
-        <f>'LOD-all'!A14</f>
-        <v>Bolt head Y-coordinate</v>
-      </c>
-      <c r="B14" s="9" t="str">
-        <f>'LOD-all'!D14</f>
-        <v>Real</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <f>'LOD-all'!F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
-        <f>'LOD-all'!A15</f>
-        <v>Bolt head Z-coordinate</v>
-      </c>
-      <c r="B15" s="9" t="str">
-        <f>'LOD-all'!D15</f>
-        <v>Real</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
-        <f>'LOD-all'!F15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
-        <f>'LOD-all'!A16</f>
-        <v>Bond type</v>
-      </c>
-      <c r="B16" s="9" t="str">
-        <f>'LOD-all'!D16</f>
-        <v>Text</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="6" t="str">
         <f>'LOD-all'!F16</f>
         <v>X</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="6" t="str">
         <f>'LOD-all'!A17</f>
-        <v>Bond length</v>
-      </c>
-      <c r="B17" s="9" t="str">
+        <v>Bond strength</v>
+      </c>
+      <c r="B17" s="6" t="str">
         <f>'LOD-all'!D17</f>
         <v>Real</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="str">
+      <c r="C17" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="D17" s="6" t="str">
         <f>'LOD-all'!F17</f>
         <v>X</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="6" t="str">
         <f>'LOD-all'!A18</f>
-        <v>Bond strength</v>
-      </c>
-      <c r="B18" s="9" t="str">
+        <v>Pre-stressing force</v>
+      </c>
+      <c r="B18" s="6" t="str">
         <f>'LOD-all'!D18</f>
         <v>Real</v>
       </c>
-      <c r="C18" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="D18" s="9" t="str">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
         <f>'LOD-all'!F18</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="6" t="str">
         <f>'LOD-all'!A19</f>
-        <v>Anchoring length</v>
-      </c>
-      <c r="B19" s="9" t="str">
+        <v>Element head X-coordinate</v>
+      </c>
+      <c r="B19" s="6" t="str">
         <f>'LOD-all'!D19</f>
         <v>Real</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
         <f>'LOD-all'!F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="str">
+      <c r="A20" s="6" t="str">
         <f>'LOD-all'!A20</f>
-        <v>Inflation pressure</v>
-      </c>
-      <c r="B20" s="9" t="str">
+        <v>Element head Y-coordinate</v>
+      </c>
+      <c r="B20" s="6" t="str">
         <f>'LOD-all'!D20</f>
         <v>Real</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
         <f>'LOD-all'!F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="str">
+      <c r="A21" s="6" t="str">
         <f>'LOD-all'!A21</f>
-        <v>Pretensioning force</v>
-      </c>
-      <c r="B21" s="9" t="str">
+        <v>Element head Z-coordinate</v>
+      </c>
+      <c r="B21" s="6" t="str">
         <f>'LOD-all'!D21</f>
         <v>Real</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <f>'LOD-all'!F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="str">
+      <c r="A22" s="6" t="str">
         <f>'LOD-all'!A22</f>
-        <v>Failure test recommended</v>
-      </c>
-      <c r="B22" s="9" t="str">
+        <v>Measurement-while-drilling</v>
+      </c>
+      <c r="B22" s="6" t="str">
         <f>'LOD-all'!D22</f>
         <v>Boolean</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <f>'LOD-all'!F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="str">
+      <c r="A23" s="6" t="str">
         <f>'LOD-all'!A23</f>
-        <v>Failure test</v>
-      </c>
-      <c r="B23" s="9" t="str">
+        <v>Failure test recommended</v>
+      </c>
+      <c r="B23" s="6" t="str">
         <f>'LOD-all'!D23</f>
         <v>Boolean</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
         <f>'LOD-all'!F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="str">
+      <c r="A24" s="6" t="str">
         <f>'LOD-all'!A24</f>
+        <v>Failure test</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>'LOD-all'!D24</f>
+        <v>Boolean</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <f>'LOD-all'!F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>'LOD-all'!A25</f>
         <v>Failure test force</v>
       </c>
-      <c r="B24" s="9" t="str">
-        <f>'LOD-all'!D24</f>
-        <v>Real</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9">
-        <f>'LOD-all'!F24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="str">
-        <f>'LOD-all'!A25</f>
+      <c r="B25" s="6" t="str">
+        <f>'LOD-all'!D25</f>
+        <v>Real</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <f>'LOD-all'!F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="str">
+        <f>'LOD-all'!A26</f>
         <v>Proof load test recommended</v>
       </c>
-      <c r="B25" s="9" t="str">
-        <f>'LOD-all'!D25</f>
+      <c r="B26" s="6" t="str">
+        <f>'LOD-all'!D26</f>
         <v>Boolean</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
-        <f>'LOD-all'!F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="str">
-        <f>'LOD-all'!A26</f>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <f>'LOD-all'!F26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="str">
+        <f>'LOD-all'!A27</f>
         <v>Proof load test</v>
       </c>
-      <c r="B26" s="9" t="str">
-        <f>'LOD-all'!D26</f>
+      <c r="B27" s="6" t="str">
+        <f>'LOD-all'!D27</f>
         <v>Text</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9">
-        <f>'LOD-all'!F26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="str">
-        <f>'LOD-all'!A27</f>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <f>'LOD-all'!F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="str">
+        <f>'LOD-all'!A28</f>
         <v>Proof load test force</v>
       </c>
-      <c r="B27" s="9" t="str">
-        <f>'LOD-all'!D27</f>
-        <v>Real</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
-        <f>'LOD-all'!F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="str">
-        <f>'LOD-all'!A28</f>
-        <v>Bolt condition</v>
-      </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="6" t="str">
         <f>'LOD-all'!D28</f>
+        <v>Real</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <f>'LOD-all'!F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="str">
+        <f>'LOD-all'!A29</f>
+        <v>Current load</v>
+      </c>
+      <c r="B29" s="6" t="str">
+        <f>'LOD-all'!D29</f>
+        <v>Real</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <f>'LOD-all'!F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="str">
+        <f>'LOD-all'!A30</f>
+        <v>Creep rate</v>
+      </c>
+      <c r="B30" s="6" t="str">
+        <f>'LOD-all'!D30</f>
+        <v>Real</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <f>'LOD-all'!F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="str">
+        <f>'LOD-all'!A31</f>
+        <v>Slip</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f>'LOD-all'!D31</f>
+        <v>Real</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <f>'LOD-all'!F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="str">
+        <f>'LOD-all'!A32</f>
+        <v>Corrosion protection</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f>'LOD-all'!D32</f>
         <v>Text</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
-        <f>'LOD-all'!F28</f>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <f>'LOD-all'!F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="str">
+        <f>'LOD-all'!A33</f>
+        <v>Corrosion protection head</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f>'LOD-all'!D33</f>
+        <v>Text</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <f>'LOD-all'!F33</f>
         <v>0</v>
       </c>
     </row>
@@ -2611,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D8C32-36C8-445D-B043-1F7E9EC016E8}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,49 +2928,53 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Number of bolts</v>
+        <v>Type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
-        <v>Integer</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2">
+        <v>Text</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="str">
         <f>'LOD-all'!G2</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'LOD-all'!A3</f>
-        <v>Spacing</v>
+        <v>ID</v>
       </c>
       <c r="B3" t="str">
         <f>'LOD-all'!D3</f>
-        <v>Real</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3">
+        <v>Text</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="str">
         <f>'LOD-all'!G3</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Length</v>
+        <v>Active</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Real</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D4" t="str">
         <f>'LOD-all'!G4</f>
         <v>X</v>
@@ -2685,48 +2983,48 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'LOD-all'!A5</f>
-        <v>Type</v>
+        <v>Number of elements</v>
       </c>
       <c r="B5" t="str">
         <f>'LOD-all'!D5</f>
-        <v>Text</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="str">
+        <v>Integer</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <f>'LOD-all'!G5</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'LOD-all'!A6</f>
-        <v>Diameter</v>
+        <v>Spacing</v>
       </c>
       <c r="B6" t="str">
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="9">
-        <v>32</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <f>'LOD-all'!G6</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'LOD-all'!A7</f>
-        <v>Yield load</v>
+        <v>Length</v>
       </c>
       <c r="B7" t="str">
         <f>'LOD-all'!D7</f>
         <v>Real</v>
       </c>
-      <c r="C7" s="9">
-        <v>402</v>
+      <c r="C7" s="6">
+        <v>10</v>
       </c>
       <c r="D7" t="str">
         <f>'LOD-all'!G7</f>
@@ -2736,30 +3034,28 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'LOD-all'!A8</f>
-        <v>Head plate type</v>
+        <v>Inclination</v>
       </c>
       <c r="B8" t="str">
         <f>'LOD-all'!D8</f>
-        <v>Text</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8">
+        <v>Real</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" t="str">
         <f>'LOD-all'!G8</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'LOD-all'!A9</f>
-        <v>Active</v>
+        <v>Azimuth</v>
       </c>
       <c r="B9" t="str">
         <f>'LOD-all'!D9</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
+        <v>Real</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" t="str">
         <f>'LOD-all'!G9</f>
         <v>X</v>
@@ -2768,13 +3064,15 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>ID</v>
+        <v>Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
-        <v>Text</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
       <c r="D10" t="str">
         <f>'LOD-all'!G10</f>
         <v>X</v>
@@ -2783,13 +3081,15 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'LOD-all'!A11</f>
-        <v>Azimuth</v>
+        <v>Yield load</v>
       </c>
       <c r="B11" t="str">
         <f>'LOD-all'!D11</f>
         <v>Real</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6">
+        <v>402</v>
+      </c>
       <c r="D11" t="str">
         <f>'LOD-all'!G11</f>
         <v>X</v>
@@ -2798,28 +3098,30 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'LOD-all'!A12</f>
-        <v>Inclination</v>
+        <v>Head plate type</v>
       </c>
       <c r="B12" t="str">
         <f>'LOD-all'!D12</f>
-        <v>Real</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" t="str">
+        <v>Text</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12">
         <f>'LOD-all'!G12</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'LOD-all'!A13</f>
-        <v>Bolt head X-coordinate</v>
+        <v>Anchoring length</v>
       </c>
       <c r="B13" t="str">
         <f>'LOD-all'!D13</f>
         <v>Real</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
       <c r="D13" t="str">
         <f>'LOD-all'!G13</f>
         <v>X</v>
@@ -2828,28 +3130,30 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'LOD-all'!A14</f>
-        <v>Bolt head Y-coordinate</v>
+        <v>Inflation pressure</v>
       </c>
       <c r="B14" t="str">
         <f>'LOD-all'!D14</f>
         <v>Real</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" t="str">
+      <c r="C14" s="6"/>
+      <c r="D14">
         <f>'LOD-all'!G14</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'LOD-all'!A15</f>
-        <v>Bolt head Z-coordinate</v>
+        <v>Bond type</v>
       </c>
       <c r="B15" t="str">
         <f>'LOD-all'!D15</f>
-        <v>Real</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" t="str">
         <f>'LOD-all'!G15</f>
         <v>X</v>
@@ -2858,14 +3162,14 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'LOD-all'!A16</f>
-        <v>Bond type</v>
+        <v>Bond length</v>
       </c>
       <c r="B16" t="str">
         <f>'LOD-all'!D16</f>
-        <v>Text</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
+        <v>Real</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
       </c>
       <c r="D16" t="str">
         <f>'LOD-all'!G16</f>
@@ -2875,14 +3179,14 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'LOD-all'!A17</f>
-        <v>Bond length</v>
+        <v>Bond strength</v>
       </c>
       <c r="B17" t="str">
         <f>'LOD-all'!D17</f>
         <v>Real</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
+      <c r="C17" s="6">
+        <v>10000000</v>
       </c>
       <c r="D17" t="str">
         <f>'LOD-all'!G17</f>
@@ -2892,14 +3196,14 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'LOD-all'!A18</f>
-        <v>Bond strength</v>
+        <v>Pre-stressing force</v>
       </c>
       <c r="B18" t="str">
         <f>'LOD-all'!D18</f>
         <v>Real</v>
       </c>
-      <c r="C18" s="9">
-        <v>10000000</v>
+      <c r="C18" s="6">
+        <v>30</v>
       </c>
       <c r="D18" t="str">
         <f>'LOD-all'!G18</f>
@@ -2909,15 +3213,13 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'LOD-all'!A19</f>
-        <v>Anchoring length</v>
+        <v>Element head X-coordinate</v>
       </c>
       <c r="B19" t="str">
         <f>'LOD-all'!D19</f>
         <v>Real</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" t="str">
         <f>'LOD-all'!G19</f>
         <v>X</v>
@@ -2926,30 +3228,28 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'LOD-all'!A20</f>
-        <v>Inflation pressure</v>
+        <v>Element head Y-coordinate</v>
       </c>
       <c r="B20" t="str">
         <f>'LOD-all'!D20</f>
         <v>Real</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20">
+      <c r="C20" s="6"/>
+      <c r="D20" t="str">
         <f>'LOD-all'!G20</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'LOD-all'!A21</f>
-        <v>Pretensioning force</v>
+        <v>Element head Z-coordinate</v>
       </c>
       <c r="B21" t="str">
         <f>'LOD-all'!D21</f>
         <v>Real</v>
       </c>
-      <c r="C21" s="9">
-        <v>30</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" t="str">
         <f>'LOD-all'!G21</f>
         <v>X</v>
@@ -2958,13 +3258,13 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'LOD-all'!A22</f>
-        <v>Failure test recommended</v>
+        <v>Measurement-while-drilling</v>
       </c>
       <c r="B22" t="str">
         <f>'LOD-all'!D22</f>
         <v>Boolean</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="6"/>
       <c r="D22">
         <f>'LOD-all'!G22</f>
         <v>0</v>
@@ -2973,13 +3273,13 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'LOD-all'!A23</f>
-        <v>Failure test</v>
+        <v>Failure test recommended</v>
       </c>
       <c r="B23" t="str">
         <f>'LOD-all'!D23</f>
         <v>Boolean</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="6"/>
       <c r="D23">
         <f>'LOD-all'!G23</f>
         <v>0</v>
@@ -2988,13 +3288,13 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'LOD-all'!A24</f>
-        <v>Failure test force</v>
+        <v>Failure test</v>
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Real</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24">
         <f>'LOD-all'!G24</f>
         <v>0</v>
@@ -3003,13 +3303,13 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'LOD-all'!A25</f>
-        <v>Proof load test recommended</v>
+        <v>Failure test force</v>
       </c>
       <c r="B25" t="str">
         <f>'LOD-all'!D25</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25">
         <f>'LOD-all'!G25</f>
         <v>0</v>
@@ -3018,13 +3318,13 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'LOD-all'!A26</f>
-        <v>Proof load test</v>
+        <v>Proof load test recommended</v>
       </c>
       <c r="B26" t="str">
         <f>'LOD-all'!D26</f>
-        <v>Text</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26">
         <f>'LOD-all'!G26</f>
         <v>0</v>
@@ -3033,13 +3333,13 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'LOD-all'!A27</f>
-        <v>Proof load test force</v>
+        <v>Proof load test</v>
       </c>
       <c r="B27" t="str">
         <f>'LOD-all'!D27</f>
-        <v>Real</v>
-      </c>
-      <c r="C27" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27">
         <f>'LOD-all'!G27</f>
         <v>0</v>
@@ -3048,15 +3348,90 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'LOD-all'!A28</f>
-        <v>Bolt condition</v>
+        <v>Proof load test force</v>
       </c>
       <c r="B28" t="str">
         <f>'LOD-all'!D28</f>
-        <v>Text</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28">
         <f>'LOD-all'!G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>'LOD-all'!A29</f>
+        <v>Current load</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'LOD-all'!D29</f>
+        <v>Real</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29">
+        <f>'LOD-all'!G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>'LOD-all'!A30</f>
+        <v>Creep rate</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'LOD-all'!D30</f>
+        <v>Real</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30">
+        <f>'LOD-all'!G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>'LOD-all'!A31</f>
+        <v>Slip</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'LOD-all'!D31</f>
+        <v>Real</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31">
+        <f>'LOD-all'!G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>'LOD-all'!A32</f>
+        <v>Corrosion protection</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'LOD-all'!D32</f>
+        <v>Text</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32">
+        <f>'LOD-all'!G32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>'LOD-all'!A33</f>
+        <v>Corrosion protection head</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'LOD-all'!D33</f>
+        <v>Text</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33">
+        <f>'LOD-all'!G33</f>
         <v>0</v>
       </c>
     </row>
@@ -3067,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23A9506-FF59-4D25-878A-BED31F9359C9}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,49 +3465,53 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Number of bolts</v>
+        <v>Type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
-        <v>Integer</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2">
+        <v>Text</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="str">
         <f>'LOD-all'!H2</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'LOD-all'!A3</f>
-        <v>Spacing</v>
+        <v>ID</v>
       </c>
       <c r="B3" t="str">
         <f>'LOD-all'!D3</f>
-        <v>Real</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3">
+        <v>Text</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="str">
         <f>'LOD-all'!H3</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Length</v>
+        <v>Active</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Real</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D4" t="str">
         <f>'LOD-all'!H4</f>
         <v>X</v>
@@ -3141,48 +3520,48 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'LOD-all'!A5</f>
-        <v>Type</v>
+        <v>Number of elements</v>
       </c>
       <c r="B5" t="str">
         <f>'LOD-all'!D5</f>
-        <v>Text</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="str">
+        <v>Integer</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <f>'LOD-all'!H5</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'LOD-all'!A6</f>
-        <v>Diameter</v>
+        <v>Spacing</v>
       </c>
       <c r="B6" t="str">
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="9">
-        <v>32</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <f>'LOD-all'!H6</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'LOD-all'!A7</f>
-        <v>Yield load</v>
+        <v>Length</v>
       </c>
       <c r="B7" t="str">
         <f>'LOD-all'!D7</f>
         <v>Real</v>
       </c>
-      <c r="C7" s="9">
-        <v>402</v>
+      <c r="C7" s="6">
+        <v>10</v>
       </c>
       <c r="D7" t="str">
         <f>'LOD-all'!H7</f>
@@ -3192,30 +3571,28 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'LOD-all'!A8</f>
-        <v>Head plate type</v>
+        <v>Inclination</v>
       </c>
       <c r="B8" t="str">
         <f>'LOD-all'!D8</f>
-        <v>Text</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8">
+        <v>Real</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" t="str">
         <f>'LOD-all'!H8</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'LOD-all'!A9</f>
-        <v>Active</v>
+        <v>Azimuth</v>
       </c>
       <c r="B9" t="str">
         <f>'LOD-all'!D9</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
+        <v>Real</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" t="str">
         <f>'LOD-all'!H9</f>
         <v>X</v>
@@ -3224,13 +3601,15 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>ID</v>
+        <v>Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
-        <v>Text</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
       <c r="D10" t="str">
         <f>'LOD-all'!H10</f>
         <v>X</v>
@@ -3239,13 +3618,15 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'LOD-all'!A11</f>
-        <v>Azimuth</v>
+        <v>Yield load</v>
       </c>
       <c r="B11" t="str">
         <f>'LOD-all'!D11</f>
         <v>Real</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6">
+        <v>402</v>
+      </c>
       <c r="D11" t="str">
         <f>'LOD-all'!H11</f>
         <v>X</v>
@@ -3254,28 +3635,30 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'LOD-all'!A12</f>
-        <v>Inclination</v>
+        <v>Head plate type</v>
       </c>
       <c r="B12" t="str">
         <f>'LOD-all'!D12</f>
-        <v>Real</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" t="str">
+        <v>Text</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12">
         <f>'LOD-all'!H12</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'LOD-all'!A13</f>
-        <v>Bolt head X-coordinate</v>
+        <v>Anchoring length</v>
       </c>
       <c r="B13" t="str">
         <f>'LOD-all'!D13</f>
         <v>Real</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
       <c r="D13" t="str">
         <f>'LOD-all'!H13</f>
         <v>X</v>
@@ -3284,28 +3667,30 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'LOD-all'!A14</f>
-        <v>Bolt head Y-coordinate</v>
+        <v>Inflation pressure</v>
       </c>
       <c r="B14" t="str">
         <f>'LOD-all'!D14</f>
         <v>Real</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" t="str">
+      <c r="C14" s="6"/>
+      <c r="D14">
         <f>'LOD-all'!H14</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'LOD-all'!A15</f>
-        <v>Bolt head Z-coordinate</v>
+        <v>Bond type</v>
       </c>
       <c r="B15" t="str">
         <f>'LOD-all'!D15</f>
-        <v>Real</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" t="str">
         <f>'LOD-all'!H15</f>
         <v>X</v>
@@ -3314,14 +3699,14 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'LOD-all'!A16</f>
-        <v>Bond type</v>
+        <v>Bond length</v>
       </c>
       <c r="B16" t="str">
         <f>'LOD-all'!D16</f>
-        <v>Text</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
+        <v>Real</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
       </c>
       <c r="D16" t="str">
         <f>'LOD-all'!H16</f>
@@ -3331,14 +3716,14 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'LOD-all'!A17</f>
-        <v>Bond length</v>
+        <v>Bond strength</v>
       </c>
       <c r="B17" t="str">
         <f>'LOD-all'!D17</f>
         <v>Real</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
+      <c r="C17" s="6">
+        <v>10000000</v>
       </c>
       <c r="D17" t="str">
         <f>'LOD-all'!H17</f>
@@ -3348,14 +3733,14 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'LOD-all'!A18</f>
-        <v>Bond strength</v>
+        <v>Pre-stressing force</v>
       </c>
       <c r="B18" t="str">
         <f>'LOD-all'!D18</f>
         <v>Real</v>
       </c>
-      <c r="C18" s="9">
-        <v>10000000</v>
+      <c r="C18" s="6">
+        <v>30</v>
       </c>
       <c r="D18" t="str">
         <f>'LOD-all'!H18</f>
@@ -3365,15 +3750,13 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'LOD-all'!A19</f>
-        <v>Anchoring length</v>
+        <v>Element head X-coordinate</v>
       </c>
       <c r="B19" t="str">
         <f>'LOD-all'!D19</f>
         <v>Real</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" t="str">
         <f>'LOD-all'!H19</f>
         <v>X</v>
@@ -3382,30 +3765,28 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'LOD-all'!A20</f>
-        <v>Inflation pressure</v>
+        <v>Element head Y-coordinate</v>
       </c>
       <c r="B20" t="str">
         <f>'LOD-all'!D20</f>
         <v>Real</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20">
+      <c r="C20" s="6"/>
+      <c r="D20" t="str">
         <f>'LOD-all'!H20</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'LOD-all'!A21</f>
-        <v>Pretensioning force</v>
+        <v>Element head Z-coordinate</v>
       </c>
       <c r="B21" t="str">
         <f>'LOD-all'!D21</f>
         <v>Real</v>
       </c>
-      <c r="C21" s="9">
-        <v>30</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" t="str">
         <f>'LOD-all'!H21</f>
         <v>X</v>
@@ -3414,13 +3795,13 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'LOD-all'!A22</f>
-        <v>Failure test recommended</v>
+        <v>Measurement-while-drilling</v>
       </c>
       <c r="B22" t="str">
         <f>'LOD-all'!D22</f>
         <v>Boolean</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="6"/>
       <c r="D22">
         <f>'LOD-all'!H22</f>
         <v>0</v>
@@ -3429,13 +3810,13 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'LOD-all'!A23</f>
-        <v>Failure test</v>
+        <v>Failure test recommended</v>
       </c>
       <c r="B23" t="str">
         <f>'LOD-all'!D23</f>
         <v>Boolean</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="6"/>
       <c r="D23">
         <f>'LOD-all'!H23</f>
         <v>0</v>
@@ -3444,13 +3825,13 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'LOD-all'!A24</f>
-        <v>Failure test force</v>
+        <v>Failure test</v>
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Real</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24">
         <f>'LOD-all'!H24</f>
         <v>0</v>
@@ -3459,13 +3840,13 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'LOD-all'!A25</f>
-        <v>Proof load test recommended</v>
+        <v>Failure test force</v>
       </c>
       <c r="B25" t="str">
         <f>'LOD-all'!D25</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25">
         <f>'LOD-all'!H25</f>
         <v>0</v>
@@ -3474,13 +3855,13 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'LOD-all'!A26</f>
-        <v>Proof load test</v>
+        <v>Proof load test recommended</v>
       </c>
       <c r="B26" t="str">
         <f>'LOD-all'!D26</f>
-        <v>Text</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26">
         <f>'LOD-all'!H26</f>
         <v>0</v>
@@ -3489,13 +3870,13 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'LOD-all'!A27</f>
-        <v>Proof load test force</v>
+        <v>Proof load test</v>
       </c>
       <c r="B27" t="str">
         <f>'LOD-all'!D27</f>
-        <v>Real</v>
-      </c>
-      <c r="C27" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27">
         <f>'LOD-all'!H27</f>
         <v>0</v>
@@ -3504,15 +3885,90 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'LOD-all'!A28</f>
-        <v>Bolt condition</v>
+        <v>Proof load test force</v>
       </c>
       <c r="B28" t="str">
         <f>'LOD-all'!D28</f>
-        <v>Text</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28">
         <f>'LOD-all'!H28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>'LOD-all'!A29</f>
+        <v>Current load</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'LOD-all'!D29</f>
+        <v>Real</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29">
+        <f>'LOD-all'!H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>'LOD-all'!A30</f>
+        <v>Creep rate</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'LOD-all'!D30</f>
+        <v>Real</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30">
+        <f>'LOD-all'!H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>'LOD-all'!A31</f>
+        <v>Slip</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'LOD-all'!D31</f>
+        <v>Real</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31">
+        <f>'LOD-all'!H31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>'LOD-all'!A32</f>
+        <v>Corrosion protection</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'LOD-all'!D32</f>
+        <v>Text</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32">
+        <f>'LOD-all'!H32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>'LOD-all'!A33</f>
+        <v>Corrosion protection head</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'LOD-all'!D33</f>
+        <v>Text</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33">
+        <f>'LOD-all'!H33</f>
         <v>0</v>
       </c>
     </row>
@@ -3523,10 +3979,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A52A319-E536-4D72-A9B6-BC945027530A}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,49 +4003,53 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Number of bolts</v>
+        <v>Type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
-        <v>Integer</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2">
+        <v>Text</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="str">
         <f>'LOD-all'!I2</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'LOD-all'!A3</f>
-        <v>Spacing</v>
+        <v>ID</v>
       </c>
       <c r="B3" t="str">
         <f>'LOD-all'!D3</f>
-        <v>Real</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3">
+        <v>Text</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="str">
         <f>'LOD-all'!I3</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Length</v>
+        <v>Active</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Real</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D4" t="str">
         <f>'LOD-all'!I4</f>
         <v>X</v>
@@ -3598,48 +4058,48 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'LOD-all'!A5</f>
-        <v>Type</v>
+        <v>Number of elements</v>
       </c>
       <c r="B5" t="str">
         <f>'LOD-all'!D5</f>
-        <v>Text</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="str">
+        <v>Integer</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <f>'LOD-all'!I5</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'LOD-all'!A6</f>
-        <v>Diameter</v>
+        <v>Spacing</v>
       </c>
       <c r="B6" t="str">
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="9">
-        <v>32</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <f>'LOD-all'!I6</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'LOD-all'!A7</f>
-        <v>Yield load</v>
+        <v>Length</v>
       </c>
       <c r="B7" t="str">
         <f>'LOD-all'!D7</f>
         <v>Real</v>
       </c>
-      <c r="C7" s="9">
-        <v>402</v>
+      <c r="C7" s="6">
+        <v>10</v>
       </c>
       <c r="D7" t="str">
         <f>'LOD-all'!I7</f>
@@ -3649,15 +4109,13 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'LOD-all'!A8</f>
-        <v>Head plate type</v>
+        <v>Inclination</v>
       </c>
       <c r="B8" t="str">
         <f>'LOD-all'!D8</f>
-        <v>Text</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>Real</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" t="str">
         <f>'LOD-all'!I8</f>
         <v>X</v>
@@ -3666,15 +4124,13 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'LOD-all'!A9</f>
-        <v>Active</v>
+        <v>Azimuth</v>
       </c>
       <c r="B9" t="str">
         <f>'LOD-all'!D9</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
+        <v>Real</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" t="str">
         <f>'LOD-all'!I9</f>
         <v>X</v>
@@ -3683,13 +4139,15 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>ID</v>
+        <v>Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
-        <v>Text</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
       <c r="D10" t="str">
         <f>'LOD-all'!I10</f>
         <v>X</v>
@@ -3698,13 +4156,15 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'LOD-all'!A11</f>
-        <v>Azimuth</v>
+        <v>Yield load</v>
       </c>
       <c r="B11" t="str">
         <f>'LOD-all'!D11</f>
         <v>Real</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6">
+        <v>402</v>
+      </c>
       <c r="D11" t="str">
         <f>'LOD-all'!I11</f>
         <v>X</v>
@@ -3713,13 +4173,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'LOD-all'!A12</f>
-        <v>Inclination</v>
+        <v>Head plate type</v>
       </c>
       <c r="B12" t="str">
         <f>'LOD-all'!D12</f>
-        <v>Real</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" t="str">
         <f>'LOD-all'!I12</f>
         <v>X</v>
@@ -3728,13 +4190,15 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'LOD-all'!A13</f>
-        <v>Bolt head X-coordinate</v>
+        <v>Anchoring length</v>
       </c>
       <c r="B13" t="str">
         <f>'LOD-all'!D13</f>
         <v>Real</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
       <c r="D13" t="str">
         <f>'LOD-all'!I13</f>
         <v>X</v>
@@ -3743,13 +4207,15 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'LOD-all'!A14</f>
-        <v>Bolt head Y-coordinate</v>
+        <v>Inflation pressure</v>
       </c>
       <c r="B14" t="str">
         <f>'LOD-all'!D14</f>
         <v>Real</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
       <c r="D14" t="str">
         <f>'LOD-all'!I14</f>
         <v>X</v>
@@ -3758,13 +4224,15 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'LOD-all'!A15</f>
-        <v>Bolt head Z-coordinate</v>
+        <v>Bond type</v>
       </c>
       <c r="B15" t="str">
         <f>'LOD-all'!D15</f>
-        <v>Real</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" t="str">
         <f>'LOD-all'!I15</f>
         <v>X</v>
@@ -3773,14 +4241,14 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'LOD-all'!A16</f>
-        <v>Bond type</v>
+        <v>Bond length</v>
       </c>
       <c r="B16" t="str">
         <f>'LOD-all'!D16</f>
-        <v>Text</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
+        <v>Real</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
       </c>
       <c r="D16" t="str">
         <f>'LOD-all'!I16</f>
@@ -3790,14 +4258,14 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'LOD-all'!A17</f>
-        <v>Bond length</v>
+        <v>Bond strength</v>
       </c>
       <c r="B17" t="str">
         <f>'LOD-all'!D17</f>
         <v>Real</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
+      <c r="C17" s="6">
+        <v>10000000</v>
       </c>
       <c r="D17" t="str">
         <f>'LOD-all'!I17</f>
@@ -3807,14 +4275,14 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'LOD-all'!A18</f>
-        <v>Bond strength</v>
+        <v>Pre-stressing force</v>
       </c>
       <c r="B18" t="str">
         <f>'LOD-all'!D18</f>
         <v>Real</v>
       </c>
-      <c r="C18" s="9">
-        <v>10000000</v>
+      <c r="C18" s="6">
+        <v>30</v>
       </c>
       <c r="D18" t="str">
         <f>'LOD-all'!I18</f>
@@ -3824,15 +4292,13 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'LOD-all'!A19</f>
-        <v>Anchoring length</v>
+        <v>Element head X-coordinate</v>
       </c>
       <c r="B19" t="str">
         <f>'LOD-all'!D19</f>
         <v>Real</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" t="str">
         <f>'LOD-all'!I19</f>
         <v>X</v>
@@ -3841,15 +4307,13 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'LOD-all'!A20</f>
-        <v>Inflation pressure</v>
+        <v>Element head Y-coordinate</v>
       </c>
       <c r="B20" t="str">
         <f>'LOD-all'!D20</f>
         <v>Real</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" t="str">
         <f>'LOD-all'!I20</f>
         <v>X</v>
@@ -3858,15 +4322,13 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'LOD-all'!A21</f>
-        <v>Pretensioning force</v>
+        <v>Element head Z-coordinate</v>
       </c>
       <c r="B21" t="str">
         <f>'LOD-all'!D21</f>
         <v>Real</v>
       </c>
-      <c r="C21" s="9">
-        <v>30</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" t="str">
         <f>'LOD-all'!I21</f>
         <v>X</v>
@@ -3875,43 +4337,43 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'LOD-all'!A22</f>
-        <v>Failure test recommended</v>
+        <v>Measurement-while-drilling</v>
       </c>
       <c r="B22" t="str">
         <f>'LOD-all'!D22</f>
         <v>Boolean</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" t="str">
+      <c r="C22" s="6"/>
+      <c r="D22">
         <f>'LOD-all'!I22</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'LOD-all'!A23</f>
-        <v>Failure test</v>
+        <v>Failure test recommended</v>
       </c>
       <c r="B23" t="str">
         <f>'LOD-all'!D23</f>
         <v>Boolean</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23">
+      <c r="C23" s="6"/>
+      <c r="D23" t="str">
         <f>'LOD-all'!I23</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'LOD-all'!A24</f>
-        <v>Failure test force</v>
+        <v>Failure test</v>
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Real</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24">
         <f>'LOD-all'!I24</f>
         <v>0</v>
@@ -3920,43 +4382,43 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'LOD-all'!A25</f>
-        <v>Proof load test recommended</v>
+        <v>Failure test force</v>
       </c>
       <c r="B25" t="str">
         <f>'LOD-all'!D25</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="str">
+        <v>Real</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25">
         <f>'LOD-all'!I25</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'LOD-all'!A26</f>
-        <v>Proof load test</v>
+        <v>Proof load test recommended</v>
       </c>
       <c r="B26" t="str">
         <f>'LOD-all'!D26</f>
-        <v>Text</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26">
+        <v>Boolean</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" t="str">
         <f>'LOD-all'!I26</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'LOD-all'!A27</f>
-        <v>Proof load test force</v>
+        <v>Proof load test</v>
       </c>
       <c r="B27" t="str">
         <f>'LOD-all'!D27</f>
-        <v>Real</v>
-      </c>
-      <c r="C27" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27">
         <f>'LOD-all'!I27</f>
         <v>0</v>
@@ -3965,16 +4427,91 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'LOD-all'!A28</f>
-        <v>Bolt condition</v>
+        <v>Proof load test force</v>
       </c>
       <c r="B28" t="str">
         <f>'LOD-all'!D28</f>
-        <v>Text</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28">
         <f>'LOD-all'!I28</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>'LOD-all'!A29</f>
+        <v>Current load</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'LOD-all'!D29</f>
+        <v>Real</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29">
+        <f>'LOD-all'!I29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>'LOD-all'!A30</f>
+        <v>Creep rate</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'LOD-all'!D30</f>
+        <v>Real</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30">
+        <f>'LOD-all'!I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>'LOD-all'!A31</f>
+        <v>Slip</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'LOD-all'!D31</f>
+        <v>Real</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31">
+        <f>'LOD-all'!I31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>'LOD-all'!A32</f>
+        <v>Corrosion protection</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'LOD-all'!D32</f>
+        <v>Text</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" t="str">
+        <f>'LOD-all'!I32</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>'LOD-all'!A33</f>
+        <v>Corrosion protection head</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'LOD-all'!D33</f>
+        <v>Text</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" t="str">
+        <f>'LOD-all'!I33</f>
+        <v>X</v>
       </c>
     </row>
   </sheetData>
@@ -3984,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE1EA75-E0E7-4DF4-8845-DC25E0A1284C}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G15:G16"/>
+      <selection activeCell="J27" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,49 +4545,53 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Number of bolts</v>
+        <v>Type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
-        <v>Integer</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2">
+        <v>Text</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="str">
         <f>'LOD-all'!J2</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'LOD-all'!A3</f>
-        <v>Spacing</v>
+        <v>ID</v>
       </c>
       <c r="B3" t="str">
         <f>'LOD-all'!D3</f>
-        <v>Real</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3">
+        <v>Text</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="str">
         <f>'LOD-all'!J3</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Length</v>
+        <v>Active</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Real</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>Boolean</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D4" t="str">
         <f>'LOD-all'!J4</f>
         <v>X</v>
@@ -4059,66 +4600,64 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'LOD-all'!A5</f>
-        <v>Type</v>
+        <v>Number of elements</v>
       </c>
       <c r="B5" t="str">
         <f>'LOD-all'!D5</f>
-        <v>Text</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="str">
+        <v>Integer</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <f>'LOD-all'!J5</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'LOD-all'!A6</f>
-        <v>Diameter</v>
+        <v>Spacing</v>
       </c>
       <c r="B6" t="str">
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="9">
-        <v>32</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <f>'LOD-all'!J6</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'LOD-all'!A7</f>
-        <v>Yield load</v>
+        <v>Length</v>
       </c>
       <c r="B7" t="str">
         <f>'LOD-all'!D7</f>
         <v>Real</v>
       </c>
-      <c r="C7" s="9">
-        <v>402</v>
+      <c r="C7" s="6">
+        <v>10</v>
       </c>
       <c r="D7" t="str">
         <f>'LOD-all'!J7</f>
-        <v>X </v>
+        <v>X</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'LOD-all'!A8</f>
-        <v>Head plate type</v>
+        <v>Inclination</v>
       </c>
       <c r="B8" t="str">
         <f>'LOD-all'!D8</f>
-        <v>Text</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>Real</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" t="str">
         <f>'LOD-all'!J8</f>
         <v>X</v>
@@ -4127,15 +4666,13 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'LOD-all'!A9</f>
-        <v>Active</v>
+        <v>Azimuth</v>
       </c>
       <c r="B9" t="str">
         <f>'LOD-all'!D9</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
+        <v>Real</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" t="str">
         <f>'LOD-all'!J9</f>
         <v>X</v>
@@ -4144,13 +4681,15 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>ID</v>
+        <v>Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
-        <v>Text</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
       <c r="D10" t="str">
         <f>'LOD-all'!J10</f>
         <v>X</v>
@@ -4159,13 +4698,15 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'LOD-all'!A11</f>
-        <v>Azimuth</v>
+        <v>Yield load</v>
       </c>
       <c r="B11" t="str">
         <f>'LOD-all'!D11</f>
         <v>Real</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6">
+        <v>402</v>
+      </c>
       <c r="D11" t="str">
         <f>'LOD-all'!J11</f>
         <v>X</v>
@@ -4174,13 +4715,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'LOD-all'!A12</f>
-        <v>Inclination</v>
+        <v>Head plate type</v>
       </c>
       <c r="B12" t="str">
         <f>'LOD-all'!D12</f>
-        <v>Real</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" t="str">
         <f>'LOD-all'!J12</f>
         <v>X</v>
@@ -4189,13 +4732,15 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'LOD-all'!A13</f>
-        <v>Bolt head X-coordinate</v>
+        <v>Anchoring length</v>
       </c>
       <c r="B13" t="str">
         <f>'LOD-all'!D13</f>
         <v>Real</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
       <c r="D13" t="str">
         <f>'LOD-all'!J13</f>
         <v>X</v>
@@ -4204,13 +4749,15 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'LOD-all'!A14</f>
-        <v>Bolt head Y-coordinate</v>
+        <v>Inflation pressure</v>
       </c>
       <c r="B14" t="str">
         <f>'LOD-all'!D14</f>
         <v>Real</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
       <c r="D14" t="str">
         <f>'LOD-all'!J14</f>
         <v>X</v>
@@ -4219,13 +4766,15 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'LOD-all'!A15</f>
-        <v>Bolt head Z-coordinate</v>
+        <v>Bond type</v>
       </c>
       <c r="B15" t="str">
         <f>'LOD-all'!D15</f>
-        <v>Real</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>Text</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" t="str">
         <f>'LOD-all'!J15</f>
         <v>X</v>
@@ -4234,14 +4783,14 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'LOD-all'!A16</f>
-        <v>Bond type</v>
+        <v>Bond length</v>
       </c>
       <c r="B16" t="str">
         <f>'LOD-all'!D16</f>
-        <v>Text</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
+        <v>Real</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
       </c>
       <c r="D16" t="str">
         <f>'LOD-all'!J16</f>
@@ -4251,14 +4800,14 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'LOD-all'!A17</f>
-        <v>Bond length</v>
+        <v>Bond strength</v>
       </c>
       <c r="B17" t="str">
         <f>'LOD-all'!D17</f>
         <v>Real</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
+      <c r="C17" s="6">
+        <v>10000000</v>
       </c>
       <c r="D17" t="str">
         <f>'LOD-all'!J17</f>
@@ -4268,14 +4817,14 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'LOD-all'!A18</f>
-        <v>Bond strength</v>
+        <v>Pre-stressing force</v>
       </c>
       <c r="B18" t="str">
         <f>'LOD-all'!D18</f>
         <v>Real</v>
       </c>
-      <c r="C18" s="9">
-        <v>10000000</v>
+      <c r="C18" s="6">
+        <v>30</v>
       </c>
       <c r="D18" t="str">
         <f>'LOD-all'!J18</f>
@@ -4285,15 +4834,13 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'LOD-all'!A19</f>
-        <v>Anchoring length</v>
+        <v>Element head X-coordinate</v>
       </c>
       <c r="B19" t="str">
         <f>'LOD-all'!D19</f>
         <v>Real</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" t="str">
         <f>'LOD-all'!J19</f>
         <v>X</v>
@@ -4302,15 +4849,13 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'LOD-all'!A20</f>
-        <v>Inflation pressure</v>
+        <v>Element head Y-coordinate</v>
       </c>
       <c r="B20" t="str">
         <f>'LOD-all'!D20</f>
         <v>Real</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" t="str">
         <f>'LOD-all'!J20</f>
         <v>X</v>
@@ -4319,15 +4864,13 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'LOD-all'!A21</f>
-        <v>Pretensioning force</v>
+        <v>Element head Z-coordinate</v>
       </c>
       <c r="B21" t="str">
         <f>'LOD-all'!D21</f>
         <v>Real</v>
       </c>
-      <c r="C21" s="9">
-        <v>30</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" t="str">
         <f>'LOD-all'!J21</f>
         <v>X</v>
@@ -4336,13 +4879,13 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'LOD-all'!A22</f>
-        <v>Failure test recommended</v>
+        <v>Measurement-while-drilling</v>
       </c>
       <c r="B22" t="str">
         <f>'LOD-all'!D22</f>
         <v>Boolean</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="6"/>
       <c r="D22" t="str">
         <f>'LOD-all'!J22</f>
         <v>X</v>
@@ -4351,13 +4894,13 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'LOD-all'!A23</f>
-        <v>Failure test</v>
+        <v>Failure test recommended</v>
       </c>
       <c r="B23" t="str">
         <f>'LOD-all'!D23</f>
         <v>Boolean</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="6"/>
       <c r="D23" t="str">
         <f>'LOD-all'!J23</f>
         <v>X</v>
@@ -4366,15 +4909,13 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'LOD-all'!A24</f>
-        <v>Failure test force</v>
+        <v>Failure test</v>
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Real</v>
-      </c>
-      <c r="C24" s="9">
-        <v>402</v>
-      </c>
+        <v>Boolean</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" t="str">
         <f>'LOD-all'!J24</f>
         <v>X</v>
@@ -4383,13 +4924,15 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'LOD-all'!A25</f>
-        <v>Proof load test recommended</v>
+        <v>Failure test force</v>
       </c>
       <c r="B25" t="str">
         <f>'LOD-all'!D25</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>Real</v>
+      </c>
+      <c r="C25" s="6">
+        <v>402</v>
+      </c>
       <c r="D25" t="str">
         <f>'LOD-all'!J25</f>
         <v>X</v>
@@ -4398,15 +4941,13 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'LOD-all'!A26</f>
-        <v>Proof load test</v>
+        <v>Proof load test recommended</v>
       </c>
       <c r="B26" t="str">
         <f>'LOD-all'!D26</f>
-        <v>Text</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>Boolean</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" t="str">
         <f>'LOD-all'!J26</f>
         <v>X</v>
@@ -4415,14 +4956,14 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'LOD-all'!A27</f>
-        <v>Proof load test force</v>
+        <v>Proof load test</v>
       </c>
       <c r="B27" t="str">
         <f>'LOD-all'!D27</f>
-        <v>Real</v>
-      </c>
-      <c r="C27" s="9">
-        <v>160</v>
+        <v>Text</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D27" t="str">
         <f>'LOD-all'!J27</f>
@@ -4432,17 +4973,92 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'LOD-all'!A28</f>
-        <v>Bolt condition</v>
+        <v>Proof load test force</v>
       </c>
       <c r="B28" t="str">
         <f>'LOD-all'!D28</f>
-        <v>Text</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>102</v>
+        <v>Real</v>
+      </c>
+      <c r="C28" s="6">
+        <v>160</v>
       </c>
       <c r="D28" t="str">
         <f>'LOD-all'!J28</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>'LOD-all'!A29</f>
+        <v>Current load</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'LOD-all'!D29</f>
+        <v>Real</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" t="str">
+        <f>'LOD-all'!J29</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>'LOD-all'!A30</f>
+        <v>Creep rate</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'LOD-all'!D30</f>
+        <v>Real</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" t="str">
+        <f>'LOD-all'!J30</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>'LOD-all'!A31</f>
+        <v>Slip</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'LOD-all'!D31</f>
+        <v>Real</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" t="str">
+        <f>'LOD-all'!J31</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>'LOD-all'!A32</f>
+        <v>Corrosion protection</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'LOD-all'!D32</f>
+        <v>Text</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" t="str">
+        <f>'LOD-all'!J32</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>'LOD-all'!A33</f>
+        <v>Corrosion protection head</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'LOD-all'!D33</f>
+        <v>Text</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" t="str">
+        <f>'LOD-all'!J33</f>
         <v>X</v>
       </c>
     </row>

--- a/Psets.xlsx
+++ b/Psets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2023\01\20230101\Delivery-Result\Codes\generic_anchors_ifc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0A300A-BF6D-4DE3-A2B5-7D58D508F416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556F5FA-031D-49DE-9B9C-4896A5A06530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1890" windowWidth="20040" windowHeight="15345" firstSheet="1" activeTab="7" xr2:uid="{D691B579-FABF-49B2-8F44-7CE73D92966A}"/>
+    <workbookView xWindow="18495" yWindow="1740" windowWidth="38595" windowHeight="18240" activeTab="1" xr2:uid="{D691B579-FABF-49B2-8F44-7CE73D92966A}"/>
   </bookViews>
   <sheets>
     <sheet name="A_MODELLINFO" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="113">
   <si>
     <t>parameter</t>
   </si>
@@ -165,12 +165,6 @@
     <t>Length</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
     <t>[mm]</t>
   </si>
   <si>
@@ -186,202 +180,211 @@
     <t>Required type of head plate</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Azimuth</t>
+  </si>
+  <si>
+    <t>[°]</t>
+  </si>
+  <si>
+    <t>Inclination</t>
+  </si>
+  <si>
+    <t>Bond type</t>
+  </si>
+  <si>
+    <t>Bond length</t>
+  </si>
+  <si>
+    <t>Bond strength</t>
+  </si>
+  <si>
+    <t>Uniaxial Compressive Strength of bond material</t>
+  </si>
+  <si>
+    <t>[Pa]</t>
+  </si>
+  <si>
+    <t>Anchoring length</t>
+  </si>
+  <si>
+    <t>Inflation pressure</t>
+  </si>
+  <si>
+    <t>[bar]</t>
+  </si>
+  <si>
+    <t>Failure test recommended</t>
+  </si>
+  <si>
+    <t>Whether the failure test is recommended</t>
+  </si>
+  <si>
+    <t>Failure test</t>
+  </si>
+  <si>
+    <t>Whether the capacity of the installed anchor is tested against the yield load (Tested/Not tested)</t>
+  </si>
+  <si>
+    <t>Failure test force</t>
+  </si>
+  <si>
+    <t>Force that is applied in case it is yield load tested</t>
+  </si>
+  <si>
+    <t>Proof load test recommended</t>
+  </si>
+  <si>
+    <t>Whether the proof load test is recommended</t>
+  </si>
+  <si>
+    <t>Proof load test force</t>
+  </si>
+  <si>
+    <t>Force that is applied in case it is proof load tested</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>Combined Bolt</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Proof load test</t>
+  </si>
+  <si>
+    <t>Required type of element</t>
+  </si>
+  <si>
+    <t>Unique identifier of single elements</t>
+  </si>
+  <si>
+    <t>Number of elements</t>
+  </si>
+  <si>
+    <t>Estimated number of elements in case no individual elements are modelled</t>
+  </si>
+  <si>
+    <t>Spacing of elements in case no individual elements are modelled</t>
+  </si>
+  <si>
+    <t>Estimated element length in case no individual elements are modelled, or specific lengths otherwise</t>
+  </si>
+  <si>
+    <t>Inclination from horizontal of individual element</t>
+  </si>
+  <si>
+    <t>Direction of individual element</t>
+  </si>
+  <si>
+    <t>Required yield load of element</t>
+  </si>
+  <si>
+    <t>Length of the element behind the zone subjected to displacement</t>
+  </si>
+  <si>
+    <t>Required pressure to inflate an expansion element (e.g. Swellex)</t>
+  </si>
+  <si>
+    <t>Material to be used to create an interface to the ground (e.g. cement, resin)</t>
+  </si>
+  <si>
+    <t>Length of the element that should be in contact with the ground</t>
+  </si>
+  <si>
+    <t>Pre-stressing force</t>
+  </si>
+  <si>
+    <t>Force that is to be applied in case of pre-stressed anchors</t>
+  </si>
+  <si>
+    <t>Element head X-coordinate</t>
+  </si>
+  <si>
+    <t>X-Coordinate of the element head</t>
+  </si>
+  <si>
+    <t>Element head Y-coordinate</t>
+  </si>
+  <si>
+    <t>Y-Coordinate of the element head</t>
+  </si>
+  <si>
+    <t>Element head Z-coordinate</t>
+  </si>
+  <si>
+    <t>Z-Coordinate of the element head</t>
+  </si>
+  <si>
+    <t>Measurement-while-drilling</t>
+  </si>
+  <si>
+    <t>Whether MWD data is available</t>
+  </si>
+  <si>
+    <t>Whether the capacity of the installed anchor is tested against the proof load and result (Passed/Failed/Not tested)</t>
+  </si>
+  <si>
+    <t>Current load</t>
+  </si>
+  <si>
+    <t>Current load determined by site testing/monitoring</t>
+  </si>
+  <si>
+    <t>Creep rate</t>
+  </si>
+  <si>
+    <t>Limit of the creep rate while testing</t>
+  </si>
+  <si>
+    <t>Slip</t>
+  </si>
+  <si>
+    <t>Slip while proof loading</t>
+  </si>
+  <si>
+    <t>Corrosion protection</t>
+  </si>
+  <si>
+    <t>Type of corrosion protection of the tensile element</t>
+  </si>
+  <si>
+    <t>Corrosion protection head</t>
+  </si>
+  <si>
+    <t>Type of corrosion protection of the head area</t>
+  </si>
+  <si>
+    <t>Element type</t>
+  </si>
+  <si>
+    <t>Reinforcement type (Active / Passive)</t>
+  </si>
+  <si>
+    <t>Element Diameter</t>
+  </si>
+  <si>
+    <t>Nominal diameter of rock bolts and anchors</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Whether the element is pre-stressed/active (Active) or non-stressed/passive (Passive)</t>
+  </si>
+  <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Azimuth</t>
-  </si>
-  <si>
-    <t>[°]</t>
-  </si>
-  <si>
-    <t>Inclination</t>
-  </si>
-  <si>
-    <t>Bond type</t>
-  </si>
-  <si>
-    <t>Bond length</t>
-  </si>
-  <si>
-    <t>Bond strength</t>
-  </si>
-  <si>
-    <t>Uniaxial Compressive Strength of bond material</t>
-  </si>
-  <si>
-    <t>[Pa]</t>
-  </si>
-  <si>
-    <t>Anchoring length</t>
-  </si>
-  <si>
-    <t>Inflation pressure</t>
-  </si>
-  <si>
-    <t>[bar]</t>
-  </si>
-  <si>
-    <t>Failure test recommended</t>
-  </si>
-  <si>
-    <t>Whether the failure test is recommended</t>
-  </si>
-  <si>
-    <t>Failure test</t>
-  </si>
-  <si>
-    <t>Whether the capacity of the installed anchor is tested against the yield load (Tested/Not tested)</t>
-  </si>
-  <si>
-    <t>Failure test force</t>
-  </si>
-  <si>
-    <t>Force that is applied in case it is yield load tested</t>
-  </si>
-  <si>
-    <t>Proof load test recommended</t>
-  </si>
-  <si>
-    <t>Whether the proof load test is recommended</t>
-  </si>
-  <si>
-    <t>Proof load test force</t>
-  </si>
-  <si>
-    <t>Force that is applied in case it is proof load tested</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>Combined Bolt</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>Circular</t>
-  </si>
-  <si>
-    <t>Proof load test</t>
-  </si>
-  <si>
-    <t>Required type of element</t>
-  </si>
-  <si>
-    <t>Unique identifier of single elements</t>
-  </si>
-  <si>
-    <t>Whether the element is pre-stressed/active (True) or non-stressed/passive (False)</t>
-  </si>
-  <si>
-    <t>Number of elements</t>
-  </si>
-  <si>
-    <t>Estimated number of elements in case no individual elements are modelled</t>
-  </si>
-  <si>
-    <t>Spacing of elements in case no individual elements are modelled</t>
-  </si>
-  <si>
-    <t>Estimated element length in case no individual elements are modelled, or specific lengths otherwise</t>
-  </si>
-  <si>
-    <t>Inclination from horizontal of individual element</t>
-  </si>
-  <si>
-    <t>Direction of individual element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nominal element diameter </t>
-  </si>
-  <si>
-    <t>Required yield load of element</t>
-  </si>
-  <si>
-    <t>Length of the element behind the zone subjected to displacement</t>
-  </si>
-  <si>
-    <t>Required pressure to inflate an expansion element (e.g. Swellex)</t>
-  </si>
-  <si>
-    <t>Material to be used to create an interface to the ground (e.g. cement, resin)</t>
-  </si>
-  <si>
-    <t>Length of the element that should be in contact with the ground</t>
-  </si>
-  <si>
-    <t>Pre-stressing force</t>
-  </si>
-  <si>
-    <t>Force that is to be applied in case of pre-stressed anchors</t>
-  </si>
-  <si>
-    <t>Element head X-coordinate</t>
-  </si>
-  <si>
-    <t>X-Coordinate of the element head</t>
-  </si>
-  <si>
-    <t>Element head Y-coordinate</t>
-  </si>
-  <si>
-    <t>Y-Coordinate of the element head</t>
-  </si>
-  <si>
-    <t>Element head Z-coordinate</t>
-  </si>
-  <si>
-    <t>Z-Coordinate of the element head</t>
-  </si>
-  <si>
-    <t>Measurement-while-drilling</t>
-  </si>
-  <si>
-    <t>Whether MWD data is available</t>
-  </si>
-  <si>
-    <t>Whether the capacity of the installed anchor is tested against the proof load and result (Passed/Failed/Not tested)</t>
-  </si>
-  <si>
-    <t>Current load</t>
-  </si>
-  <si>
-    <t>Current load determined by site testing/monitoring</t>
-  </si>
-  <si>
-    <t>Creep rate</t>
-  </si>
-  <si>
-    <t>Limit of the creep rate while testing</t>
-  </si>
-  <si>
-    <t>Slip</t>
-  </si>
-  <si>
-    <t>Slip while proof loading</t>
-  </si>
-  <si>
-    <t>Corrosion protection</t>
-  </si>
-  <si>
-    <t>Type of corrosion protection of the tensile element</t>
-  </si>
-  <si>
-    <t>Corrosion protection head</t>
-  </si>
-  <si>
-    <t>Type of corrosion protection of the head area</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -972,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9259D7-FEB3-418C-8720-A7065C1FE4BE}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +1018,10 @@
     </row>
     <row r="2" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>34</v>
@@ -1047,10 +1050,10 @@
     </row>
     <row r="3" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>34</v>
@@ -1075,16 +1078,16 @@
     </row>
     <row r="4" spans="1:10" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>35</v>
@@ -1107,10 +1110,10 @@
     </row>
     <row r="5" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>34</v>
@@ -1132,7 +1135,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>37</v>
@@ -1154,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>37</v>
@@ -1181,13 +1184,13 @@
     </row>
     <row r="8" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>21</v>
@@ -1209,13 +1212,13 @@
     </row>
     <row r="9" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>21</v>
@@ -1235,15 +1238,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>21</v>
@@ -1267,13 +1270,13 @@
     </row>
     <row r="11" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>21</v>
@@ -1297,10 +1300,10 @@
     </row>
     <row r="12" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>34</v>
@@ -1321,10 +1324,10 @@
     </row>
     <row r="13" spans="1:10" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>37</v>
@@ -1349,13 +1352,13 @@
     </row>
     <row r="14" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>21</v>
@@ -1373,10 +1376,10 @@
     </row>
     <row r="15" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>34</v>
@@ -1403,10 +1406,10 @@
     </row>
     <row r="16" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>37</v>
@@ -1433,13 +1436,13 @@
     </row>
     <row r="17" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
@@ -1463,13 +1466,13 @@
     </row>
     <row r="18" spans="1:10" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>21</v>
@@ -1491,10 +1494,10 @@
     </row>
     <row r="19" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>34</v>
@@ -1519,10 +1522,10 @@
     </row>
     <row r="20" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>34</v>
@@ -1547,10 +1550,10 @@
     </row>
     <row r="21" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>34</v>
@@ -1575,16 +1578,16 @@
     </row>
     <row r="22" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1597,16 +1600,16 @@
     </row>
     <row r="23" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1621,16 +1624,16 @@
     </row>
     <row r="24" spans="1:10" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1643,13 +1646,13 @@
     </row>
     <row r="25" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>21</v>
@@ -1665,16 +1668,16 @@
     </row>
     <row r="26" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1689,10 +1692,10 @@
     </row>
     <row r="27" spans="1:10" ht="168.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>34</v>
@@ -1711,13 +1714,13 @@
     </row>
     <row r="28" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>21</v>
@@ -1733,13 +1736,13 @@
     </row>
     <row r="29" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -1755,13 +1758,13 @@
     </row>
     <row r="30" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>21</v>
@@ -1777,13 +1780,13 @@
     </row>
     <row r="31" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
@@ -1799,10 +1802,10 @@
     </row>
     <row r="32" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>34</v>
@@ -1823,10 +1826,10 @@
     </row>
     <row r="33" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>34</v>
@@ -1856,7 +1859,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,20 +1880,20 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Type</v>
+        <v>Element type</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>'LOD-all'!D2</f>
         <v>Text</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>'LOD-all'!E2</f>
@@ -1915,14 +1918,14 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Active</v>
+        <v>Reinforcement type (Active / Passive)</v>
       </c>
       <c r="B4" s="6" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
+        <v>Text</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>'LOD-all'!E4</f>
@@ -2007,7 +2010,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>'LOD-all'!A10</f>
-        <v>Diameter</v>
+        <v>Element Diameter</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>'LOD-all'!D10</f>
@@ -2221,7 +2224,7 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Boolean</v>
+        <v>Text</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
@@ -2374,7 +2377,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,20 +2398,20 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Type</v>
+        <v>Element type</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>'LOD-all'!D2</f>
         <v>Text</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>'LOD-all'!F2</f>
@@ -2433,14 +2436,14 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Active</v>
+        <v>Reinforcement type (Active / Passive)</v>
       </c>
       <c r="B4" s="6" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
+        <v>Text</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>'LOD-all'!F4</f>
@@ -2531,7 +2534,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>'LOD-all'!A10</f>
-        <v>Diameter</v>
+        <v>Element Diameter</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>'LOD-all'!D10</f>
@@ -2617,7 +2620,7 @@
         <v>Text</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>'LOD-all'!F15</f>
@@ -2755,7 +2758,7 @@
       </c>
       <c r="B24" s="6" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Boolean</v>
+        <v>Text</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
@@ -2908,7 +2911,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,20 +2931,20 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Type</v>
+        <v>Element type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
         <v>Text</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>'LOD-all'!G2</f>
@@ -2966,14 +2969,14 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Active</v>
+        <v>Reinforcement type (Active / Passive)</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
+        <v>Text</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D4" t="str">
         <f>'LOD-all'!G4</f>
@@ -2989,9 +2992,7 @@
         <f>'LOD-all'!D5</f>
         <v>Integer</v>
       </c>
-      <c r="C5" s="6">
-        <v>20</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5">
         <f>'LOD-all'!G5</f>
         <v>0</v>
@@ -3006,9 +3007,7 @@
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6">
         <f>'LOD-all'!G6</f>
         <v>0</v>
@@ -3064,7 +3063,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>Diameter</v>
+        <v>Element Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
@@ -3152,7 +3151,7 @@
         <v>Text</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" t="str">
         <f>'LOD-all'!G15</f>
@@ -3292,7 +3291,7 @@
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Boolean</v>
+        <v>Text</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24">
@@ -3445,7 +3444,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,20 +3464,20 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Type</v>
+        <v>Element type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
         <v>Text</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>'LOD-all'!H2</f>
@@ -3503,14 +3502,14 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Active</v>
+        <v>Reinforcement type (Active / Passive)</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
+        <v>Text</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D4" t="str">
         <f>'LOD-all'!H4</f>
@@ -3526,9 +3525,7 @@
         <f>'LOD-all'!D5</f>
         <v>Integer</v>
       </c>
-      <c r="C5" s="6">
-        <v>20</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5">
         <f>'LOD-all'!H5</f>
         <v>0</v>
@@ -3543,9 +3540,7 @@
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6">
         <f>'LOD-all'!H6</f>
         <v>0</v>
@@ -3601,7 +3596,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>Diameter</v>
+        <v>Element Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
@@ -3689,7 +3684,7 @@
         <v>Text</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" t="str">
         <f>'LOD-all'!H15</f>
@@ -3829,7 +3824,7 @@
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Boolean</v>
+        <v>Text</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24">
@@ -3982,7 +3977,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,20 +3998,20 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Type</v>
+        <v>Element type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
         <v>Text</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>'LOD-all'!I2</f>
@@ -4041,14 +4036,14 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Active</v>
+        <v>Reinforcement type (Active / Passive)</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
+        <v>Text</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D4" t="str">
         <f>'LOD-all'!I4</f>
@@ -4064,9 +4059,7 @@
         <f>'LOD-all'!D5</f>
         <v>Integer</v>
       </c>
-      <c r="C5" s="6">
-        <v>20</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5">
         <f>'LOD-all'!I5</f>
         <v>0</v>
@@ -4081,9 +4074,7 @@
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6">
         <f>'LOD-all'!I6</f>
         <v>0</v>
@@ -4139,7 +4130,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>Diameter</v>
+        <v>Element Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
@@ -4180,7 +4171,7 @@
         <v>Text</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" t="str">
         <f>'LOD-all'!I12</f>
@@ -4231,7 +4222,7 @@
         <v>Text</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" t="str">
         <f>'LOD-all'!I15</f>
@@ -4371,7 +4362,7 @@
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Boolean</v>
+        <v>Text</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24">
@@ -4523,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE1EA75-E0E7-4DF4-8845-DC25E0A1284C}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J26:J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,20 +4536,20 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'LOD-all'!A2</f>
-        <v>Type</v>
+        <v>Element type</v>
       </c>
       <c r="B2" t="str">
         <f>'LOD-all'!D2</f>
         <v>Text</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>'LOD-all'!J2</f>
@@ -4583,14 +4574,14 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'LOD-all'!A4</f>
-        <v>Active</v>
+        <v>Reinforcement type (Active / Passive)</v>
       </c>
       <c r="B4" t="str">
         <f>'LOD-all'!D4</f>
-        <v>Boolean</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
+        <v>Text</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D4" t="str">
         <f>'LOD-all'!J4</f>
@@ -4606,9 +4597,7 @@
         <f>'LOD-all'!D5</f>
         <v>Integer</v>
       </c>
-      <c r="C5" s="6">
-        <v>20</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5">
         <f>'LOD-all'!J5</f>
         <v>0</v>
@@ -4623,9 +4612,7 @@
         <f>'LOD-all'!D6</f>
         <v>Real</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6">
         <f>'LOD-all'!J6</f>
         <v>0</v>
@@ -4681,7 +4668,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'LOD-all'!A10</f>
-        <v>Diameter</v>
+        <v>Element Diameter</v>
       </c>
       <c r="B10" t="str">
         <f>'LOD-all'!D10</f>
@@ -4722,7 +4709,7 @@
         <v>Text</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" t="str">
         <f>'LOD-all'!J12</f>
@@ -4773,7 +4760,7 @@
         <v>Text</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" t="str">
         <f>'LOD-all'!J15</f>
@@ -4885,7 +4872,9 @@
         <f>'LOD-all'!D22</f>
         <v>Boolean</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="D22" t="str">
         <f>'LOD-all'!J22</f>
         <v>X</v>
@@ -4913,7 +4902,7 @@
       </c>
       <c r="B24" t="str">
         <f>'LOD-all'!D24</f>
-        <v>Boolean</v>
+        <v>Text</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" t="str">
@@ -4930,9 +4919,7 @@
         <f>'LOD-all'!D25</f>
         <v>Real</v>
       </c>
-      <c r="C25" s="6">
-        <v>402</v>
-      </c>
+      <c r="C25" s="6"/>
       <c r="D25" t="str">
         <f>'LOD-all'!J25</f>
         <v>X</v>
@@ -4962,9 +4949,7 @@
         <f>'LOD-all'!D27</f>
         <v>Text</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" t="str">
         <f>'LOD-all'!J27</f>
         <v>X</v>
@@ -4979,9 +4964,7 @@
         <f>'LOD-all'!D28</f>
         <v>Real</v>
       </c>
-      <c r="C28" s="6">
-        <v>160</v>
-      </c>
+      <c r="C28" s="6"/>
       <c r="D28" t="str">
         <f>'LOD-all'!J28</f>
         <v>X</v>
